--- a/Parts List.xlsx
+++ b/Parts List.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="90">
   <si>
     <t>Part</t>
   </si>
@@ -196,18 +196,6 @@
     <t>http://www.digikey.com/product-detail/en/M20-9980346/952-2121-ND/3728085</t>
   </si>
   <si>
-    <t>Switches</t>
-  </si>
-  <si>
-    <t>3 Position Dip Switch</t>
-  </si>
-  <si>
-    <t>CTS-219-03 (SMD)</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/219-3LPST/CT2193LPST-ND/223166</t>
-  </si>
-  <si>
     <t>Buttons</t>
   </si>
   <si>
@@ -227,6 +215,15 @@
   </si>
   <si>
     <t>http://www.digikey.com/product-detail/en/TSX-3225%2020.0000MF20G-AC3/SER3629CT-ND/1802880</t>
+  </si>
+  <si>
+    <t>MIC5205</t>
+  </si>
+  <si>
+    <t>SOT23-5</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/MIC5205-3.3YM5%20TR/576-1259-1-ND/771886</t>
   </si>
   <si>
     <t>Required Values of R given Vf, Vcc, and Current Max</t>
@@ -491,16 +488,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -638,10 +631,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
@@ -649,7 +642,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.3333333333333"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.662962962963"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="24.5"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="16.162962962963"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.162962962963"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.8333333333333"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="22.1666666666667"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="90.1592592592593"/>
@@ -659,418 +652,412 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="n">
+      <c r="E2" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="8" t="n">
+      <c r="E3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="13" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="14"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="8" t="n">
-        <v>10</v>
-      </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="13" t="s">
+      <c r="E4" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="E5" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11"/>
+      <c r="B7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="14"/>
+      <c r="B8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="F8" s="9"/>
+      <c r="G8" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="8" t="n">
+      <c r="E9" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11"/>
+      <c r="B10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12"/>
-      <c r="B7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="E10" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="15"/>
+      <c r="B11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15"/>
-      <c r="B8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="E11" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12"/>
-      <c r="B10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16"/>
-      <c r="B11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11" t="s">
+      <c r="F12" s="9"/>
+      <c r="G12" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11" t="s">
+      <c r="F13" s="9"/>
+      <c r="G13" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="19"/>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="11" t="s">
+      <c r="F14" s="9"/>
+      <c r="G14" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16"/>
-      <c r="B15" s="10" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11" t="s">
+      <c r="F15" s="9"/>
+      <c r="G15" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11" t="s">
+      <c r="F16" s="9"/>
+      <c r="G16" s="10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="11" t="s">
+      <c r="F17" s="9"/>
+      <c r="G17" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="10" t="n">
+      <c r="B19" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="10" t="s">
+      <c r="F19" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="10" t="n">
+      <c r="G19" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="10" t="s">
+      <c r="G20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G20" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" display="http://www.digikey.com/product-detail/en/CL10C100JB8NCNC/1276-2154-1-ND/3890240"/>
@@ -1089,8 +1076,7 @@
     <hyperlink ref="G15" r:id="rId14" display="http://www.digikey.com/product-detail/en/FT232RL-REEL/768-1007-1-ND/1836402"/>
     <hyperlink ref="G16" r:id="rId15" display="http://www.digikey.com/product-detail/en/10118194-0001LF/609-4618-1-ND/2785382"/>
     <hyperlink ref="G17" r:id="rId16" display="http://www.digikey.com/product-detail/en/M20-9980346/952-2121-ND/3728085"/>
-    <hyperlink ref="G18" r:id="rId17" display="http://www.digikey.com/product-detail/en/219-3LPST/CT2193LPST-ND/223166"/>
-    <hyperlink ref="G20" r:id="rId18" display="http://www.digikey.com/product-detail/en/TSX-3225%2020.0000MF20G-AC3/SER3629CT-ND/1802880"/>
+    <hyperlink ref="G19" r:id="rId17" display="http://www.digikey.com/product-detail/en/TSX-3225%2020.0000MF20G-AC3/SER3629CT-ND/1802880"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1128,188 +1114,188 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="22" t="s">
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+    </row>
+    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-    </row>
-    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="C2" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="23"/>
+      <c r="H2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>77</v>
+      <c r="L2" s="5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="25" t="n">
+      <c r="A3" s="24" t="n">
         <f aca="false">0.02</f>
         <v>0.02</v>
       </c>
-      <c r="B3" s="25" t="n">
+      <c r="B3" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="C3" s="10" t="n">
+      <c r="C3" s="9" t="n">
         <v>1.5</v>
       </c>
-      <c r="D3" s="10" t="n">
+      <c r="D3" s="9" t="n">
         <f aca="false">($B$3-C3)/(0.02)</f>
         <v>175</v>
       </c>
-      <c r="E3" s="10" t="n">
+      <c r="E3" s="9" t="n">
         <f aca="false">($B$3-C3)*$A$3</f>
         <v>0.07</v>
       </c>
-      <c r="F3" s="10" t="n">
+      <c r="F3" s="9" t="n">
         <f aca="false">D3*($A$3)^2</f>
         <v>0.07</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="10" t="s">
+      <c r="G3" s="25"/>
+      <c r="H3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="10" t="n">
+      <c r="I3" s="9" t="n">
         <v>1.85</v>
       </c>
-      <c r="J3" s="10" t="n">
+      <c r="J3" s="9" t="n">
         <v>150</v>
       </c>
-      <c r="K3" s="10" t="n">
+      <c r="K3" s="9" t="n">
         <f aca="false">($B$3-I3)/(J3)</f>
         <v>0.021</v>
       </c>
-      <c r="L3" s="10" t="n">
+      <c r="L3" s="9" t="n">
         <f aca="false">(K3^2)*J3</f>
         <v>0.06615</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="10" t="n">
+      <c r="C4" s="9" t="n">
         <v>1.6</v>
       </c>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="9" t="n">
         <f aca="false">($B$3-C4)/(0.02)</f>
         <v>170</v>
       </c>
-      <c r="E4" s="10" t="n">
+      <c r="E4" s="9" t="n">
         <f aca="false">($B$3-C4)*$A$3</f>
         <v>0.068</v>
       </c>
-      <c r="F4" s="10" t="n">
+      <c r="F4" s="9" t="n">
         <f aca="false">D4*($A$3)^2</f>
         <v>0.068</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="10" t="s">
+      <c r="G4" s="25"/>
+      <c r="H4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="10" t="n">
+      <c r="I4" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="J4" s="10" t="n">
+      <c r="J4" s="9" t="n">
         <v>150</v>
       </c>
-      <c r="K4" s="10" t="n">
+      <c r="K4" s="9" t="n">
         <f aca="false">($B$3-I4)/(J4)</f>
         <v>0.02</v>
       </c>
-      <c r="L4" s="10" t="n">
+      <c r="L4" s="9" t="n">
         <f aca="false">(K4^2)*J4</f>
         <v>0.06</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="10" t="n">
+      <c r="C5" s="9" t="n">
         <v>1.7</v>
       </c>
-      <c r="D5" s="10" t="n">
+      <c r="D5" s="9" t="n">
         <f aca="false">($B$3-C5)/(0.02)</f>
         <v>165</v>
       </c>
-      <c r="E5" s="10" t="n">
+      <c r="E5" s="9" t="n">
         <f aca="false">($B$3-C5)*$A$3</f>
         <v>0.066</v>
       </c>
-      <c r="F5" s="10" t="n">
+      <c r="F5" s="9" t="n">
         <f aca="false">D5*($A$3)^2</f>
         <v>0.066</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="10" t="s">
+      <c r="G5" s="25"/>
+      <c r="H5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="10" t="n">
+      <c r="I5" s="9" t="n">
         <v>2.1</v>
       </c>
-      <c r="J5" s="10" t="n">
+      <c r="J5" s="9" t="n">
         <v>150</v>
       </c>
-      <c r="K5" s="10" t="n">
+      <c r="K5" s="9" t="n">
         <f aca="false">($B$3-I5)/(J5)</f>
         <v>0.0193333333333333</v>
       </c>
-      <c r="L5" s="10" t="n">
+      <c r="L5" s="9" t="n">
         <f aca="false">(K5^2)*J5</f>
         <v>0.0560666666666667</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="10" t="n">
+      <c r="C6" s="9" t="n">
         <v>1.8</v>
       </c>
-      <c r="D6" s="10" t="n">
+      <c r="D6" s="9" t="n">
         <f aca="false">($B$3-C6)/(0.02)</f>
         <v>160</v>
       </c>
-      <c r="E6" s="10" t="n">
+      <c r="E6" s="9" t="n">
         <f aca="false">($B$3-C6)*$A$3</f>
         <v>0.064</v>
       </c>
-      <c r="F6" s="10" t="n">
+      <c r="F6" s="9" t="n">
         <f aca="false">D6*($A$3)^2</f>
         <v>0.064</v>
       </c>
-      <c r="G6" s="26"/>
+      <c r="G6" s="25"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1317,24 +1303,24 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="10" t="n">
+      <c r="C7" s="9" t="n">
         <v>1.9</v>
       </c>
-      <c r="D7" s="10" t="n">
+      <c r="D7" s="9" t="n">
         <f aca="false">($B$3-C7)/(0.02)</f>
         <v>155</v>
       </c>
-      <c r="E7" s="10" t="n">
+      <c r="E7" s="9" t="n">
         <f aca="false">($B$3-C7)*$A$3</f>
         <v>0.062</v>
       </c>
-      <c r="F7" s="10" t="n">
+      <c r="F7" s="9" t="n">
         <f aca="false">D7*($A$3)^2</f>
         <v>0.062</v>
       </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="27" t="s">
-        <v>82</v>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26" t="s">
+        <v>81</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1342,22 +1328,22 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="10" t="n">
+      <c r="C8" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" s="10" t="n">
+      <c r="D8" s="9" t="n">
         <f aca="false">($B$3-C8)/(0.02)</f>
         <v>150</v>
       </c>
-      <c r="E8" s="10" t="n">
+      <c r="E8" s="9" t="n">
         <f aca="false">($B$3-C8)*$A$3</f>
         <v>0.06</v>
       </c>
-      <c r="F8" s="10" t="n">
+      <c r="F8" s="9" t="n">
         <f aca="false">D8*($A$3)^2</f>
         <v>0.06</v>
       </c>
-      <c r="G8" s="26"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1365,22 +1351,22 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="10" t="n">
+      <c r="C9" s="9" t="n">
         <v>2.1</v>
       </c>
-      <c r="D9" s="10" t="n">
+      <c r="D9" s="9" t="n">
         <f aca="false">($B$3-C9)/(0.02)</f>
         <v>145</v>
       </c>
-      <c r="E9" s="10" t="n">
+      <c r="E9" s="9" t="n">
         <f aca="false">($B$3-C9)*$A$3</f>
         <v>0.058</v>
       </c>
-      <c r="F9" s="10" t="n">
+      <c r="F9" s="9" t="n">
         <f aca="false">D9*($A$3)^2</f>
         <v>0.058</v>
       </c>
-      <c r="G9" s="26"/>
+      <c r="G9" s="25"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1388,22 +1374,22 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="10" t="n">
+      <c r="C10" s="9" t="n">
         <v>2.2</v>
       </c>
-      <c r="D10" s="10" t="n">
+      <c r="D10" s="9" t="n">
         <f aca="false">($B$3-C10)/(0.02)</f>
         <v>140</v>
       </c>
-      <c r="E10" s="10" t="n">
+      <c r="E10" s="9" t="n">
         <f aca="false">($B$3-C10)*$A$3</f>
         <v>0.056</v>
       </c>
-      <c r="F10" s="10" t="n">
+      <c r="F10" s="9" t="n">
         <f aca="false">D10*($A$3)^2</f>
         <v>0.056</v>
       </c>
-      <c r="G10" s="26"/>
+      <c r="G10" s="25"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1411,22 +1397,22 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="10" t="n">
+      <c r="C11" s="9" t="n">
         <v>2.3</v>
       </c>
-      <c r="D11" s="10" t="n">
+      <c r="D11" s="9" t="n">
         <f aca="false">($B$3-C11)/(0.02)</f>
         <v>135</v>
       </c>
-      <c r="E11" s="10" t="n">
+      <c r="E11" s="9" t="n">
         <f aca="false">($B$3-C11)*$A$3</f>
         <v>0.054</v>
       </c>
-      <c r="F11" s="10" t="n">
+      <c r="F11" s="9" t="n">
         <f aca="false">D11*($A$3)^2</f>
         <v>0.054</v>
       </c>
-      <c r="G11" s="26"/>
+      <c r="G11" s="25"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1434,22 +1420,22 @@
       <c r="L11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="10" t="n">
+      <c r="C12" s="9" t="n">
         <v>2.4</v>
       </c>
-      <c r="D12" s="10" t="n">
+      <c r="D12" s="9" t="n">
         <f aca="false">($B$3-C12)/(0.02)</f>
         <v>130</v>
       </c>
-      <c r="E12" s="10" t="n">
+      <c r="E12" s="9" t="n">
         <f aca="false">($B$3-C12)*$A$3</f>
         <v>0.052</v>
       </c>
-      <c r="F12" s="10" t="n">
+      <c r="F12" s="9" t="n">
         <f aca="false">D12*($A$3)^2</f>
         <v>0.052</v>
       </c>
-      <c r="G12" s="26"/>
+      <c r="G12" s="25"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1457,22 +1443,22 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="10" t="n">
+      <c r="C13" s="9" t="n">
         <v>2.5</v>
       </c>
-      <c r="D13" s="10" t="n">
+      <c r="D13" s="9" t="n">
         <f aca="false">($B$3-C13)/(0.02)</f>
         <v>125</v>
       </c>
-      <c r="E13" s="10" t="n">
+      <c r="E13" s="9" t="n">
         <f aca="false">($B$3-C13)*$A$3</f>
         <v>0.05</v>
       </c>
-      <c r="F13" s="10" t="n">
+      <c r="F13" s="9" t="n">
         <f aca="false">D13*($A$3)^2</f>
         <v>0.05</v>
       </c>
-      <c r="G13" s="26"/>
+      <c r="G13" s="25"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1480,22 +1466,22 @@
       <c r="L13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="10" t="n">
+      <c r="C14" s="9" t="n">
         <v>2.6</v>
       </c>
-      <c r="D14" s="10" t="n">
+      <c r="D14" s="9" t="n">
         <f aca="false">($B$3-C14)/(0.02)</f>
         <v>120</v>
       </c>
-      <c r="E14" s="10" t="n">
+      <c r="E14" s="9" t="n">
         <f aca="false">($B$3-C14)*$A$3</f>
         <v>0.048</v>
       </c>
-      <c r="F14" s="10" t="n">
+      <c r="F14" s="9" t="n">
         <f aca="false">D14*($A$3)^2</f>
         <v>0.048</v>
       </c>
-      <c r="G14" s="26"/>
+      <c r="G14" s="25"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1503,22 +1489,22 @@
       <c r="L14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="10" t="n">
+      <c r="C15" s="9" t="n">
         <v>1.85</v>
       </c>
-      <c r="D15" s="10" t="n">
+      <c r="D15" s="9" t="n">
         <f aca="false">($B$3-C15)/(0.02)</f>
         <v>157.5</v>
       </c>
-      <c r="E15" s="10" t="n">
+      <c r="E15" s="9" t="n">
         <f aca="false">($B$3-C15)*0.02</f>
         <v>0.063</v>
       </c>
-      <c r="F15" s="10" t="n">
+      <c r="F15" s="9" t="n">
         <f aca="false">D15*($A$3)^2</f>
         <v>0.063</v>
       </c>
-      <c r="G15" s="26"/>
+      <c r="G15" s="25"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1560,69 +1546,69 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="28"/>
+      <c r="A1" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="27"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="22" t="s">
+      <c r="E2" s="21"/>
+    </row>
+    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="22"/>
-    </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="10" t="n">
+      <c r="B3" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="D3" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" s="10" t="n">
+      <c r="D3" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="9" t="n">
         <f aca="false">((E4*E5)/(E4+E5))+B4</f>
         <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="10" t="n">
+      <c r="E4" s="9" t="n">
         <f aca="false">B5</f>
         <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="10" t="n">
+      <c r="A5" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="9" t="n">
         <f aca="false">2*(B3-B4)</f>
         <v>10</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="10" t="n">
+      <c r="D5" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="9" t="n">
         <f aca="false">B5</f>
         <v>10</v>
       </c>
